--- a/Tools/Generation/Blogging System/Blogging.xlsx
+++ b/Tools/Generation/Blogging System/Blogging.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -44,15 +44,25 @@
   </si>
   <si>
     <t xml:space="preserve">Hello_World.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Adventures: Verilog 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly_Adventures/2021_05_01.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -133,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +161,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,13 +185,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -205,6 +219,20 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>44201.9993055556</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Generation/Blogging System/Blogging.xlsx
+++ b/Tools/Generation/Blogging System/Blogging.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,6 +34,21 @@
     <t xml:space="preserve">File Path</t>
   </si>
   <si>
+    <t xml:space="preserve">16/05/2021 23:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Adventures: Verilog 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly_Adventures/2021_05_16/index.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly_Adventures/2021_05_01.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">24/04/2021 15:42:02</t>
   </si>
   <si>
@@ -44,15 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hello_World.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Adventures: Verilog 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Adventures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly_Adventures/2021_05_01.md</t>
   </si>
 </sst>
 </file>
@@ -61,8 +67,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -160,11 +166,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,13 +191,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -207,34 +213,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>44201.9993055556</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Tools/Generation/Blogging System/Blogging.xlsx
+++ b/Tools/Generation/Blogging System/Blogging.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -37,13 +37,16 @@
     <t xml:space="preserve">16/05/2021 23:59:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Weekly Adventures: Doom Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly_Adventures/2021_05_16/index.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weekly Adventures: Verilog 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Adventures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly_Adventures/2021_05_16/index.md</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly_Adventures/2021_05_01.md</t>
@@ -194,10 +197,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -214,7 +217,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -223,7 +226,7 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -232,27 +235,27 @@
         <v>44201.9993055556</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
